--- a/data/trans_camb/P19C05-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C05-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.563163592140812</v>
+        <v>-7.097064559758808</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.09747333485705</v>
+        <v>-11.06793013553361</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.243650527410075</v>
+        <v>-10.02249939857366</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.50008638528131</v>
+        <v>-10.43132079695538</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-9.63139275638933</v>
+        <v>-9.990318991345637</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-10.162587798236</v>
+        <v>-11.04433615802943</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-7.034095721625115</v>
+        <v>-7.309811944500906</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-8.859045209227723</v>
+        <v>-8.779781347288914</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-8.796672034172227</v>
+        <v>-8.630716284483913</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.526773379503938</v>
+        <v>3.031435931264972</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.930822488073921</v>
+        <v>-1.962786049787522</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.188325572443512</v>
+        <v>-1.550991739970566</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03800329217386031</v>
+        <v>0.1837504309434083</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.576411166020518</v>
+        <v>1.259640142108475</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.44849379126198</v>
+        <v>-1.591115914620044</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.02771867555012151</v>
+        <v>0.0336409891541657</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.993043490757904</v>
+        <v>-2.154549478961589</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-2.701960067494103</v>
+        <v>-2.560605670061534</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4480609339683825</v>
+        <v>-0.4231434861050495</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6743739925495376</v>
+        <v>-0.6763640296261898</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5647832684984829</v>
+        <v>-0.6001327708018768</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6641482127192209</v>
+        <v>-0.6531579869539677</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5820539119637397</v>
+        <v>-0.6047803508831846</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6170556145165337</v>
+        <v>-0.6380416464631335</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4564521279285262</v>
+        <v>-0.4650018041239318</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5795005974887973</v>
+        <v>-0.5741908485677736</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5565711337163042</v>
+        <v>-0.5458740541611252</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2415433956143717</v>
+        <v>0.276090174247386</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1371294347552001</v>
+        <v>-0.1424664136344783</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1045948502296503</v>
+        <v>-0.1230291405161983</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.009726578366248018</v>
+        <v>0.02459957097163198</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2031438642456743</v>
+        <v>0.1344784241110893</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.113358854779481</v>
+        <v>-0.1461784425480881</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.0006348548028904131</v>
+        <v>0.01230312272251741</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1554930106194593</v>
+        <v>-0.1694994204459401</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.232148413111628</v>
+        <v>-0.2229548476113903</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.9815687203794277</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.6756203103776254</v>
+        <v>-0.6756203103776226</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.731814178503036</v>
@@ -878,7 +878,7 @@
         <v>-1.549640502455307</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.6568408088122951</v>
+        <v>-0.6568408088122966</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.717850733734528</v>
+        <v>-2.071142544189144</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.441933321187931</v>
+        <v>-7.512825978211679</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.058849901693309</v>
+        <v>-6.233809311773203</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.385407323478801</v>
+        <v>-3.702848090750461</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.882422368345653</v>
+        <v>-5.178934028152827</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.134540019793572</v>
+        <v>-4.502086907642626</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.348097375913774</v>
+        <v>-1.201835577804519</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.721080109799942</v>
+        <v>-4.792362451303144</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.508238743491057</v>
+        <v>-3.617645556662446</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.790486655988637</v>
+        <v>9.521709233607378</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.046340014545903</v>
+        <v>3.040703351230617</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.14573122920651</v>
+        <v>3.593895077907696</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.136995505341551</v>
+        <v>5.040004518079014</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.257778802057566</v>
+        <v>3.073093468189962</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.956241400233682</v>
+        <v>2.524664616524086</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.12006776271968</v>
+        <v>6.424180807142547</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.621609027301936</v>
+        <v>1.702960561719707</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.218062897350703</v>
+        <v>2.06692559149359</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.1288041695463003</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.08865677073854271</v>
+        <v>-0.08865677073854235</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2727626771697017</v>
@@ -983,7 +983,7 @@
         <v>-0.1547265166959237</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.06558339834963803</v>
+        <v>-0.06558339834963817</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1093500355203127</v>
+        <v>-0.120236431499812</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.507206860313407</v>
+        <v>-0.4806774682368574</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3773075504146828</v>
+        <v>-0.3723291530411423</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3598884819692695</v>
+        <v>-0.3931556090520038</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5148153476345765</v>
+        <v>-0.516290838533275</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4304862863279922</v>
+        <v>-0.4385140895322376</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1071042927347909</v>
+        <v>-0.09784367203311606</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4007414923033297</v>
+        <v>-0.4103833757293568</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2941563207841893</v>
+        <v>-0.303854317967004</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.036171828209849</v>
+        <v>0.9845463634749828</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2924275612012249</v>
+        <v>0.3101471174852737</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3274718570408509</v>
+        <v>0.3604252272357871</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8857227447209475</v>
+        <v>0.8622462317368941</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5924415911835883</v>
+        <v>0.5231989803596538</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5532569697063121</v>
+        <v>0.4641816772939435</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7418202272712417</v>
+        <v>0.776250805780168</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2114002935240898</v>
+        <v>0.2138917133541432</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2692346956807082</v>
+        <v>0.2745567135959245</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>6.257397887562701</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.297358897690055</v>
+        <v>6.297358897690057</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>5.545640496140597</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.550204516779842</v>
+        <v>-2.123806523777185</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.050683132752794</v>
+        <v>-2.184387654303175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.874081614646681</v>
+        <v>-4.756827206993238</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.580970703558115</v>
+        <v>5.167775866719668</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.959003908428352</v>
+        <v>-1.536080810191493</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5235444784616272</v>
+        <v>-0.575796389014692</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.537618379062828</v>
+        <v>1.763850396166353</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.6569941805734999</v>
+        <v>-0.6776709910611304</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.299222645663575</v>
+        <v>-2.988998540450495</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.087577770473866</v>
+        <v>7.317016790291488</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.690025814894702</v>
+        <v>7.460515930650715</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.958472801086476</v>
+        <v>3.713834485830737</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20.87871022941152</v>
+        <v>19.86372776965234</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>14.4880801629713</v>
+        <v>14.46585690340695</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.8838372192195</v>
+        <v>12.863096492637</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.640849851558068</v>
+        <v>9.835654290566112</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.03368905708405</v>
+        <v>7.71636542506786</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.354774766143043</v>
+        <v>4.810729409775754</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.6439300667882055</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6480423346002583</v>
+        <v>0.6480423346002585</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4630517660303516</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1697413880949389</v>
+        <v>-0.1512355567234155</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1301537465823234</v>
+        <v>-0.1501787631150937</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3339135491257572</v>
+        <v>-0.3178217479725511</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.342251877994132</v>
+        <v>0.351027698758366</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2826141009626537</v>
+        <v>-0.1952794246608968</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.02036331910297983</v>
+        <v>-0.06530934230225684</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1086365903968773</v>
+        <v>0.1267888371437456</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.04578636254391046</v>
+        <v>-0.05671834553581475</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1656078900857831</v>
+        <v>-0.2096340707033852</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6917358489828712</v>
+        <v>0.7249072481173612</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7333463747239263</v>
+        <v>0.7053559373594752</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3988119926810652</v>
+        <v>0.3765093445759987</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.286342390025593</v>
+        <v>3.221853261012535</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.078657546383342</v>
+        <v>2.14070067177971</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.205575603662192</v>
+        <v>2.143508288759226</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.004221712790692</v>
+        <v>0.9964321853039042</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.833353741226687</v>
+        <v>0.7397413607798973</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5510967131247531</v>
+        <v>0.4809353151828403</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-5.991337333470407</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-4.85577769136538</v>
+        <v>-4.855777691365382</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.889394923738962</v>
+        <v>-5.137281575433307</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.240474369130567</v>
+        <v>-8.971435225850719</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.452726600096048</v>
+        <v>-8.388861452460763</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.08465555505181</v>
+        <v>-4.354445733749004</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.574300545845668</v>
+        <v>-9.533735906426514</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.641441727177716</v>
+        <v>-7.457740859662536</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.484109730193072</v>
+        <v>-3.690044883160824</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.429285859456073</v>
+        <v>-8.576951343081843</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-7.325991853259918</v>
+        <v>-7.026372438064091</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.027534000073081</v>
+        <v>1.985859335262271</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.193950402510729</v>
+        <v>-2.529690554285337</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.769247068852687</v>
+        <v>-1.91382091410539</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.77877208588027</v>
+        <v>3.31574718227795</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-2.701163257346937</v>
+        <v>-2.619134255032467</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.553077769635237</v>
+        <v>-1.236062585877134</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.754009021822409</v>
+        <v>1.547215190167723</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-3.51715590118186</v>
+        <v>-3.620198216106765</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-2.580313496198566</v>
+        <v>-2.559847841614749</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.3690832288610009</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.2991295614333653</v>
+        <v>-0.2991295614333654</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2482538608005686</v>
+        <v>-0.2523704392469779</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4682271043486315</v>
+        <v>-0.4640251461718372</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.418390359936631</v>
+        <v>-0.4277952266737265</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2614107719046653</v>
+        <v>-0.2749791287047241</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5899974561943659</v>
+        <v>-0.6018133074977409</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4700536151109224</v>
+        <v>-0.4745796080545392</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1990416665750177</v>
+        <v>-0.2077548849247575</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.478026940710299</v>
+        <v>-0.4902159354440514</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4085386796741838</v>
+        <v>-0.3969296524625618</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1305295666243423</v>
+        <v>0.1230736655872314</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1323105250303632</v>
+        <v>-0.1536261323732105</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.104091639016589</v>
+        <v>-0.1223565904123547</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3212989009731264</v>
+        <v>0.2888226256881605</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.2127478060372219</v>
+        <v>-0.220056340912919</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1322684135253476</v>
+        <v>-0.1047287431574506</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1204647185560272</v>
+        <v>0.1026681333349762</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2346014862767341</v>
+        <v>-0.2410593805692339</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1770344705557805</v>
+        <v>-0.168228628228918</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.155441393457705</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.231924071660706</v>
+        <v>-3.231924071660704</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>8.300935742232577</v>
@@ -1511,7 +1511,7 @@
         <v>-2.219029915341419</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-1.577724952649798</v>
+        <v>-1.577724952649795</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>7.916768067836075</v>
@@ -1520,7 +1520,7 @@
         <v>-2.163278932841525</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-2.420813178767481</v>
+        <v>-2.420813178767479</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.620706267000225</v>
+        <v>1.799835039425304</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.201762691069903</v>
+        <v>-6.767768200903084</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.852016222229024</v>
+        <v>-8.261657742675739</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.806361705933919</v>
+        <v>3.207228787256013</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.658824933726969</v>
+        <v>-6.470613947609517</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.60836850337823</v>
+        <v>-5.605681242958963</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.322659128616643</v>
+        <v>4.230354870377214</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.448765962022089</v>
+        <v>-5.378031252143979</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.799074881743114</v>
+        <v>-5.385673044194061</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.79819819721983</v>
+        <v>13.10805290092287</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.259548723553616</v>
+        <v>3.485622559046233</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6018927668730062</v>
+        <v>0.9582663173751301</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.93783578681724</v>
+        <v>13.30646385192996</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.832986130207245</v>
+        <v>2.668745737047509</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.068956191734026</v>
+        <v>2.316201772927159</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.452001437524</v>
+        <v>11.78424438635425</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.2283584195621</v>
+        <v>1.076191849137874</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.4237788295706214</v>
+        <v>0.2778505225411882</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1027961258329611</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2875345088328543</v>
+        <v>-0.287534508832854</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.5104010304409009</v>
@@ -1616,7 +1616,7 @@
         <v>-0.1364418651751698</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.09700983920256158</v>
+        <v>-0.09700983920256141</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.5461920862198901</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1492485094017934</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1670162608187946</v>
+        <v>-0.1670162608187945</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1043519481825473</v>
+        <v>0.1045918145120044</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.44078638020188</v>
+        <v>-0.4446785688864969</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5407886350958971</v>
+        <v>-0.5503578983020451</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1645510913633148</v>
+        <v>0.1561611532177368</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3607116690355672</v>
+        <v>-0.3490682483875451</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2955944511961142</v>
+        <v>-0.2890243904993273</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2612854414095329</v>
+        <v>0.2475421683229707</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3355041238386394</v>
+        <v>-0.3277318317535438</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3396870052903443</v>
+        <v>-0.3258383781521196</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.514019612796903</v>
+        <v>1.573856085686839</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4026457792846284</v>
+        <v>0.4431061817509351</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1113615636179794</v>
+        <v>0.1148112114232882</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.9751242816339655</v>
+        <v>0.9750366837530106</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.203414308771658</v>
+        <v>0.2093043394925452</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1528388453270369</v>
+        <v>0.1742377721938313</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9243062522244777</v>
+        <v>0.9628391551279518</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.09803332764808403</v>
+        <v>0.08537072473764773</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.03517079011568999</v>
+        <v>0.01771656761533203</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.03621911471353054</v>
+        <v>-0.1281845613318758</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.1277619808370286</v>
+        <v>-0.01624107340873131</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.9908809844661014</v>
+        <v>-1.184946822955013</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.528714003221251</v>
+        <v>-3.457391865587744</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-11.35959898355743</v>
+        <v>-10.65955743665699</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-9.345872260665711</v>
+        <v>-9.235182676895025</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.783107088277371</v>
+        <v>-2.665258831539924</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-8.832233758368563</v>
+        <v>-8.631306818762747</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-7.349093221945785</v>
+        <v>-7.750488333465647</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.767792475380012</v>
+        <v>5.687972816404314</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.14408692390195</v>
+        <v>6.245970872040694</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.75082515652709</v>
+        <v>5.551158399023266</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.830224990870404</v>
+        <v>4.419905659516279</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-3.208384531554465</v>
+        <v>-2.65145465820772</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-2.036560153618235</v>
+        <v>-2.105376122672054</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.955313138861177</v>
+        <v>4.009095113816094</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-2.373006418851705</v>
+        <v>-2.816265032704255</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-1.773824942823457</v>
+        <v>-1.691829133499768</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>2.069783866530214</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.9290970181545416</v>
+        <v>0.9290970181545414</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.01048367020082142</v>
@@ -1850,29 +1850,29 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3944034434891978</v>
+        <v>-0.387832053474666</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3611073056749459</v>
+        <v>-0.3747775652431313</v>
       </c>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.1452088977295454</v>
+        <v>-0.1472714391703746</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4586274779716711</v>
+        <v>-0.4453795305696833</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3756665539695138</v>
+        <v>-0.379900759630588</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1356793832965455</v>
+        <v>-0.133041067682947</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4418905883923747</v>
+        <v>-0.4339139069856809</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3701991065922214</v>
+        <v>-0.3850197974006603</v>
       </c>
     </row>
     <row r="39">
@@ -1882,30 +1882,26 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C39" s="6" t="n">
-        <v>12.10233362782937</v>
-      </c>
-      <c r="D39" s="6" t="n">
-        <v>12.4640440064587</v>
-      </c>
+      <c r="C39" s="6" t="inlineStr"/>
+      <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.1941599039372627</v>
+        <v>0.2158816563035843</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1527181643532385</v>
+        <v>-0.1350868711663168</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.09738470444424258</v>
+        <v>-0.1070871302145945</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2391776021313224</v>
+        <v>0.2367309491352181</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.1363047172290266</v>
+        <v>-0.164880329528727</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.1028231551091339</v>
+        <v>-0.1011352566740716</v>
       </c>
     </row>
     <row r="40">
@@ -1926,7 +1922,7 @@
         <v>-2.906417585992069</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-3.177476614846427</v>
+        <v>-3.177476614846428</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>2.054795034850654</v>
@@ -1944,7 +1940,7 @@
         <v>-3.789497048764268</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-3.674821784527099</v>
+        <v>-3.674821784527101</v>
       </c>
     </row>
     <row r="41">
@@ -1955,31 +1951,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.5185881554027032</v>
+        <v>-0.5814864979721651</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.665907313653202</v>
+        <v>-4.649183339922644</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.134814947277599</v>
+        <v>-5.104714633321025</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.01157805934626176</v>
+        <v>0.03477110880970205</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-6.485526910291302</v>
+        <v>-6.387107623515383</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-5.690563872833685</v>
+        <v>-5.893498729028828</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.3327729473253299</v>
+        <v>0.3553900582159193</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-5.059715190344148</v>
+        <v>-5.010726861757301</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-4.887102171777513</v>
+        <v>-4.903187191327373</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1986,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.318314533675087</v>
+        <v>3.447783070361349</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-1.15199479515399</v>
+        <v>-0.9610655126227217</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-1.440294855733903</v>
+        <v>-1.534221547167615</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.933768346213552</v>
+        <v>4.103364364870711</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-2.515494634179473</v>
+        <v>-2.760251238270202</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-2.459948258741481</v>
+        <v>-2.581389680719104</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.107583504029095</v>
+        <v>3.189221740132789</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-2.451500997583439</v>
+        <v>-2.298857742188706</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-2.542168855256324</v>
+        <v>-2.50227066703177</v>
       </c>
     </row>
     <row r="43">
@@ -2031,7 +2027,7 @@
         <v>-0.2138641087553756</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.2338095556537943</v>
+        <v>-0.2338095556537944</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1273087306877402</v>
@@ -2060,31 +2056,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.03747552839086333</v>
+        <v>-0.04008522824368585</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3190700393608221</v>
+        <v>-0.3184160001093646</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3486668303616537</v>
+        <v>-0.3459169708090834</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.004063140097646993</v>
+        <v>0.001457112597564014</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3752914871329769</v>
+        <v>-0.3749819830945106</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.327956633485035</v>
+        <v>-0.3366637025562825</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01825146602826668</v>
+        <v>0.02293948180514478</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.325224012397326</v>
+        <v>-0.3232426492627005</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3123720552464361</v>
+        <v>-0.3105031333236565</v>
       </c>
     </row>
     <row r="45">
@@ -2095,31 +2091,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2586681889068354</v>
+        <v>0.2680616797873799</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.08768052353141283</v>
+        <v>-0.0761595812150139</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1153907700647609</v>
+        <v>-0.1212047513419349</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2545322321740323</v>
+        <v>0.2747399144993788</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.1603616687888762</v>
+        <v>-0.1829887114714301</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.1653538480174268</v>
+        <v>-0.1682158390126237</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2189524917709371</v>
+        <v>0.2253206805143582</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.1722181289234868</v>
+        <v>-0.1620967672233759</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.1779466624679648</v>
+        <v>-0.1728465006550849</v>
       </c>
     </row>
     <row r="46">
